--- a/Main/templates/relatorio_excel.xlsx
+++ b/Main/templates/relatorio_excel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visão Geral" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Visão Geral" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -105,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -353,20 +353,60 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -374,80 +414,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,6 +550,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -492,16 +594,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -888,498 +980,511 @@
   </sheetPr>
   <dimension ref="B2:V32"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col width="1.28515625" customWidth="1" style="12" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="12" min="2" max="3"/>
-    <col width="20.28515625" customWidth="1" style="12" min="4" max="4"/>
-    <col width="1.28515625" customWidth="1" style="12" min="5" max="5"/>
-    <col width="9.140625" customWidth="1" style="12" min="6" max="8"/>
-    <col width="1.42578125" customWidth="1" style="12" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="12" min="10" max="12"/>
-    <col width="0.7109375" customWidth="1" style="12" min="13" max="13"/>
-    <col hidden="1" width="9.140625" customWidth="1" style="12" min="14" max="19"/>
-    <col hidden="1" width="12.140625" customWidth="1" style="12" min="20" max="20"/>
-    <col hidden="1" width="9.140625" customWidth="1" style="12" min="23" max="26"/>
-    <col hidden="1" width="9.140625" customWidth="1" style="12" min="27" max="16384"/>
+    <col width="1.28515625" customWidth="1" style="6" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="6" min="2" max="3"/>
+    <col width="20.28515625" customWidth="1" style="6" min="4" max="4"/>
+    <col width="0.85546875" customWidth="1" style="6" min="5" max="5"/>
+    <col width="9.140625" customWidth="1" style="6" min="6" max="8"/>
+    <col width="0.85546875" customWidth="1" style="6" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="6" min="10" max="12"/>
+    <col width="0.7109375" customWidth="1" style="6" min="13" max="13"/>
+    <col hidden="1" width="9.140625" customWidth="1" style="6" min="14" max="19"/>
+    <col hidden="1" width="12.140625" customWidth="1" style="6" min="20" max="20"/>
+    <col hidden="1" width="9.140625" customWidth="1" style="6" min="23" max="30"/>
+    <col hidden="1" width="9.140625" customWidth="1" style="6" min="31" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="5.25" customHeight="1" s="12" thickBot="1"/>
-    <row r="2" ht="20.25" customHeight="1" s="12">
-      <c r="B2" s="21" t="inlineStr">
+    <row r="1" ht="5.25" customHeight="1" s="6" thickBot="1"/>
+    <row r="2" ht="20.25" customHeight="1" s="6">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>VALOR TOTAL GASTO</t>
         </is>
       </c>
-      <c r="C2" s="18" t="n"/>
-      <c r="D2" s="19" t="n"/>
-      <c r="F2" s="21" t="inlineStr">
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="14" t="n"/>
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>Cartão de crédito</t>
         </is>
       </c>
-      <c r="G2" s="18" t="n"/>
-      <c r="H2" s="19" t="n"/>
-      <c r="J2" s="21" t="inlineStr">
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="14" t="n"/>
+      <c r="J2" s="13" t="inlineStr">
         <is>
           <t>Gastos no Débio/Pix</t>
         </is>
       </c>
-      <c r="K2" s="18" t="n"/>
-      <c r="L2" s="19" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="14" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="31" t="n">
-        <v>3542.65</v>
-      </c>
-      <c r="D3" s="13" t="n"/>
-      <c r="F3" s="32" t="n">
-        <v>3038.15</v>
-      </c>
-      <c r="H3" s="13" t="n"/>
-      <c r="J3" s="32" t="n">
-        <v>504.5</v>
-      </c>
-      <c r="L3" s="13" t="n"/>
+      <c r="B3" s="42" t="n">
+        <v>2883.36</v>
+      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="F3" s="43" t="n">
+        <v>2263.46</v>
+      </c>
+      <c r="H3" s="8" t="n"/>
+      <c r="J3" s="43" t="n">
+        <v>619.9</v>
+      </c>
+      <c r="L3" s="8" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="11" t="n"/>
-      <c r="D4" s="13" t="n"/>
-      <c r="F4" s="11" t="n"/>
-      <c r="H4" s="13" t="n"/>
-      <c r="J4" s="11" t="n"/>
-      <c r="L4" s="13" t="n"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="12" thickBot="1">
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="F5" s="14" t="n"/>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="16" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="15" t="n"/>
-      <c r="L5" s="16" t="n"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" s="12" thickBot="1">
-      <c r="D6" s="9" t="n"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="12">
-      <c r="B7" s="22" t="inlineStr">
+      <c r="B4" s="9" t="n"/>
+      <c r="D4" s="8" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="H4" s="8" t="n"/>
+      <c r="J4" s="9" t="n"/>
+      <c r="L4" s="8" t="n"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="6" thickBot="1">
+      <c r="B5" s="10" t="n"/>
+      <c r="C5" s="11" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="F5" s="10" t="n"/>
+      <c r="G5" s="11" t="n"/>
+      <c r="H5" s="12" t="n"/>
+      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="11" t="n"/>
+      <c r="L5" s="12" t="n"/>
+    </row>
+    <row r="6" ht="4.5" customHeight="1" s="6" thickBot="1">
+      <c r="D6" s="21" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="6">
+      <c r="B7" s="15" t="inlineStr">
         <is>
           <t>Orçamento mensal - Gastos</t>
         </is>
       </c>
-      <c r="C7" s="18" t="n"/>
-      <c r="D7" s="19" t="n"/>
-      <c r="F7" s="21" t="inlineStr">
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="14" t="n"/>
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>Valor disponível</t>
         </is>
       </c>
-      <c r="G7" s="18" t="n"/>
-      <c r="H7" s="19" t="n"/>
-      <c r="J7" s="22" t="inlineStr">
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="J7" s="15" t="inlineStr">
         <is>
           <t>% Gasto total</t>
         </is>
       </c>
-      <c r="K7" s="18" t="n"/>
-      <c r="L7" s="19" t="n"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="12" thickBot="1">
-      <c r="B8" s="32" t="n">
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="14" t="n"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="6" thickBot="1">
+      <c r="B8" s="43" t="n">
         <v>3750</v>
       </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="F8" s="31">
+      <c r="D8" s="8" t="n"/>
+      <c r="F8" s="42">
         <f>(B8-B3)</f>
         <v/>
       </c>
-      <c r="H8" s="13" t="n"/>
-      <c r="J8" s="24">
+      <c r="H8" s="8" t="n"/>
+      <c r="J8" s="17">
         <f>(B3/B8)</f>
         <v/>
       </c>
-      <c r="L8" s="13" t="n"/>
+      <c r="L8" s="8" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="11" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="F9" s="11" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="J9" s="11" t="n"/>
-      <c r="L9" s="13" t="n"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="12" thickBot="1">
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="15" t="n"/>
-      <c r="D10" s="16" t="n"/>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="15" t="n"/>
-      <c r="L10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="12" thickBot="1"/>
-    <row r="12" ht="20.25" customHeight="1" s="12">
-      <c r="B12" s="17" t="inlineStr">
-        <is>
-          <t>Valor destinado a poupança - (M -1)</t>
-        </is>
-      </c>
-      <c r="C12" s="18" t="n"/>
-      <c r="D12" s="18" t="n"/>
-      <c r="E12" s="18" t="n"/>
-      <c r="F12" s="18" t="n"/>
-      <c r="G12" s="18" t="n"/>
-      <c r="H12" s="18" t="n"/>
-      <c r="I12" s="18" t="n"/>
-      <c r="J12" s="18" t="n"/>
-      <c r="K12" s="18" t="n"/>
-      <c r="L12" s="19" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="12">
-      <c r="B13" s="33" t="n">
-        <v>17779</v>
-      </c>
-      <c r="C13" s="9" t="n"/>
-      <c r="D13" s="9" t="n"/>
-      <c r="E13" s="9" t="n"/>
-      <c r="F13" s="9" t="n"/>
-      <c r="G13" s="9" t="n"/>
-      <c r="H13" s="9" t="n"/>
-      <c r="I13" s="9" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="10" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="12">
-      <c r="B14" s="11" t="n"/>
-      <c r="L14" s="13" t="n"/>
-      <c r="T14" s="34" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="12">
-      <c r="B15" s="11" t="n"/>
-      <c r="L15" s="13" t="n"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="12" thickBot="1">
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="15" t="n"/>
-      <c r="D16" s="15" t="n"/>
-      <c r="E16" s="15" t="n"/>
-      <c r="F16" s="15" t="n"/>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="15" t="n"/>
-      <c r="I16" s="15" t="n"/>
-      <c r="J16" s="15" t="n"/>
-      <c r="K16" s="15" t="n"/>
-      <c r="L16" s="16" t="n"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" s="12">
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B9" s="9" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="H9" s="8" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="L9" s="8" t="n"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="6" thickBot="1">
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="11" t="n"/>
+      <c r="D10" s="12" t="n"/>
+      <c r="F10" s="10" t="n"/>
+      <c r="G10" s="11" t="n"/>
+      <c r="H10" s="12" t="n"/>
+      <c r="J10" s="10" t="n"/>
+      <c r="K10" s="11" t="n"/>
+      <c r="L10" s="12" t="n"/>
+    </row>
+    <row r="11" ht="4.5" customHeight="1" s="6" thickBot="1"/>
+    <row r="12" ht="25.5" customHeight="1" s="6" thickBot="1">
+      <c r="B12" s="24" t="inlineStr">
+        <is>
+          <t>Gasto diário disponível:</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="14" t="n"/>
+      <c r="G12" s="44" t="n">
+        <v>50.97882352941176</v>
+      </c>
+      <c r="H12" s="4" t="n"/>
+      <c r="I12" s="4" t="n"/>
+      <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="14" t="n"/>
+    </row>
+    <row r="13" ht="5.25" customHeight="1" s="6" thickBot="1"/>
+    <row r="14" ht="24.75" customHeight="1" s="6" thickBot="1">
+      <c r="B14" s="23" t="inlineStr">
+        <is>
+          <t>Valor destinado a poupança  (M -1)</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="4" t="n"/>
+      <c r="H14" s="4" t="n"/>
+      <c r="I14" s="4" t="n"/>
+      <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="n"/>
+      <c r="L14" s="14" t="n"/>
+      <c r="T14" s="45" t="n"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="6" thickBot="1">
+      <c r="B15" s="46" t="n">
+        <v>32867.78</v>
+      </c>
+      <c r="C15" s="21" t="n"/>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="n"/>
+      <c r="F15" s="21" t="n"/>
+      <c r="G15" s="21" t="n"/>
+      <c r="H15" s="21" t="n"/>
+      <c r="I15" s="21" t="n"/>
+      <c r="J15" s="21" t="n"/>
+      <c r="K15" s="21" t="n"/>
+      <c r="L15" s="22" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="6">
+      <c r="B16" s="9" t="n"/>
+      <c r="L16" s="8" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="9" t="n"/>
+      <c r="L17" s="8" t="n"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" s="6" thickBot="1">
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="11" t="n"/>
+      <c r="E18" s="11" t="n"/>
+      <c r="F18" s="11" t="n"/>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="11" t="n"/>
+      <c r="J18" s="11" t="n"/>
+      <c r="K18" s="11" t="n"/>
+      <c r="L18" s="12" t="n"/>
+      <c r="R18" s="1" t="n"/>
+    </row>
+    <row r="19" ht="3" customHeight="1" s="6" thickBot="1"/>
+    <row r="20" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B20" s="19" t="inlineStr">
         <is>
           <t>Gastos por categoria</t>
         </is>
       </c>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
-      <c r="F18" s="6" t="n"/>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="6" t="n"/>
-      <c r="I18" s="6" t="n"/>
-      <c r="J18" s="6" t="n"/>
-      <c r="K18" s="6" t="n"/>
-      <c r="L18" s="7" t="n"/>
-      <c r="R18" s="1" t="n"/>
-    </row>
-    <row r="19" ht="23.25" customHeight="1" s="12">
-      <c r="B19" s="25" t="inlineStr">
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="4" t="n"/>
+      <c r="H20" s="4" t="n"/>
+      <c r="I20" s="4" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
+      <c r="L20" s="5" t="n"/>
+      <c r="V20" s="1" t="n"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B21" s="27" t="inlineStr">
         <is>
           <t>Alimentação</t>
         </is>
       </c>
-      <c r="C19" s="6" t="n"/>
-      <c r="D19" s="6" t="n"/>
-      <c r="E19" s="6" t="n"/>
-      <c r="F19" s="26" t="n"/>
-      <c r="G19" s="35" t="n">
-        <v>1066.63</v>
-      </c>
-      <c r="H19" s="6" t="n"/>
-      <c r="I19" s="6" t="n"/>
-      <c r="J19" s="6" t="n"/>
-      <c r="K19" s="6" t="n"/>
-      <c r="L19" s="7" t="n"/>
-    </row>
-    <row r="20" ht="21" customHeight="1" s="12">
-      <c r="B20" s="25" t="inlineStr">
+      <c r="F21" s="47" t="n"/>
+      <c r="G21" s="48" t="n">
+        <v>916.59</v>
+      </c>
+      <c r="L21" s="49" t="n"/>
+    </row>
+    <row r="22" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B22" s="32" t="inlineStr">
         <is>
           <t>Moradia</t>
         </is>
       </c>
-      <c r="C20" s="6" t="n"/>
-      <c r="D20" s="6" t="n"/>
-      <c r="E20" s="6" t="n"/>
-      <c r="F20" s="26" t="n"/>
-      <c r="G20" s="35" t="n">
+      <c r="C22" s="50" t="n"/>
+      <c r="D22" s="50" t="n"/>
+      <c r="E22" s="50" t="n"/>
+      <c r="F22" s="51" t="n"/>
+      <c r="G22" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="6" t="n"/>
-      <c r="I20" s="6" t="n"/>
-      <c r="J20" s="6" t="n"/>
-      <c r="K20" s="6" t="n"/>
-      <c r="L20" s="7" t="n"/>
-      <c r="V20" s="1" t="n"/>
-    </row>
-    <row r="21" ht="21" customHeight="1" s="12">
-      <c r="B21" s="25" t="inlineStr">
+      <c r="H22" s="50" t="n"/>
+      <c r="I22" s="50" t="n"/>
+      <c r="J22" s="50" t="n"/>
+      <c r="K22" s="50" t="n"/>
+      <c r="L22" s="53" t="n"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B23" s="32" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
-      <c r="F21" s="26" t="n"/>
-      <c r="G21" s="35" t="n">
+      <c r="C23" s="50" t="n"/>
+      <c r="D23" s="50" t="n"/>
+      <c r="E23" s="50" t="n"/>
+      <c r="F23" s="51" t="n"/>
+      <c r="G23" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="6" t="n"/>
-      <c r="I21" s="6" t="n"/>
-      <c r="J21" s="6" t="n"/>
-      <c r="K21" s="6" t="n"/>
-      <c r="L21" s="7" t="n"/>
-    </row>
-    <row r="22" ht="21" customHeight="1" s="12">
-      <c r="B22" s="25" t="inlineStr">
+      <c r="H23" s="50" t="n"/>
+      <c r="I23" s="50" t="n"/>
+      <c r="J23" s="50" t="n"/>
+      <c r="K23" s="50" t="n"/>
+      <c r="L23" s="53" t="n"/>
+    </row>
+    <row r="24" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B24" s="32" t="inlineStr">
         <is>
           <t>Saúde</t>
         </is>
       </c>
-      <c r="C22" s="6" t="n"/>
-      <c r="D22" s="6" t="n"/>
-      <c r="E22" s="6" t="n"/>
-      <c r="F22" s="26" t="n"/>
-      <c r="G22" s="35" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="H22" s="6" t="n"/>
-      <c r="I22" s="6" t="n"/>
-      <c r="J22" s="6" t="n"/>
-      <c r="K22" s="6" t="n"/>
-      <c r="L22" s="7" t="n"/>
-    </row>
-    <row r="23" ht="21" customHeight="1" s="12">
-      <c r="B23" s="25" t="inlineStr">
+      <c r="C24" s="50" t="n"/>
+      <c r="D24" s="50" t="n"/>
+      <c r="E24" s="50" t="n"/>
+      <c r="F24" s="51" t="n"/>
+      <c r="G24" s="52" t="n">
+        <v>205.31</v>
+      </c>
+      <c r="H24" s="50" t="n"/>
+      <c r="I24" s="50" t="n"/>
+      <c r="J24" s="50" t="n"/>
+      <c r="K24" s="50" t="n"/>
+      <c r="L24" s="53" t="n"/>
+    </row>
+    <row r="25" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B25" s="32" t="inlineStr">
         <is>
           <t>Lazer e entreterimento</t>
         </is>
       </c>
-      <c r="C23" s="6" t="n"/>
-      <c r="D23" s="6" t="n"/>
-      <c r="E23" s="6" t="n"/>
-      <c r="F23" s="26" t="n"/>
-      <c r="G23" s="35" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="H23" s="6" t="n"/>
-      <c r="I23" s="6" t="n"/>
-      <c r="J23" s="6" t="n"/>
-      <c r="K23" s="6" t="n"/>
-      <c r="L23" s="7" t="n"/>
-    </row>
-    <row r="24" ht="21" customHeight="1" s="12">
-      <c r="B24" s="25" t="inlineStr">
+      <c r="C25" s="50" t="n"/>
+      <c r="D25" s="50" t="n"/>
+      <c r="E25" s="50" t="n"/>
+      <c r="F25" s="51" t="n"/>
+      <c r="G25" s="52" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="H25" s="50" t="n"/>
+      <c r="I25" s="50" t="n"/>
+      <c r="J25" s="50" t="n"/>
+      <c r="K25" s="50" t="n"/>
+      <c r="L25" s="53" t="n"/>
+    </row>
+    <row r="26" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B26" s="32" t="inlineStr">
         <is>
           <t>Compras</t>
         </is>
       </c>
-      <c r="C24" s="6" t="n"/>
-      <c r="D24" s="6" t="n"/>
-      <c r="E24" s="6" t="n"/>
-      <c r="F24" s="26" t="n"/>
-      <c r="G24" s="35" t="n">
-        <v>435.46</v>
-      </c>
-      <c r="H24" s="6" t="n"/>
-      <c r="I24" s="6" t="n"/>
-      <c r="J24" s="6" t="n"/>
-      <c r="K24" s="6" t="n"/>
-      <c r="L24" s="7" t="n"/>
-    </row>
-    <row r="25" ht="21" customHeight="1" s="12">
-      <c r="B25" s="25" t="inlineStr">
+      <c r="C26" s="50" t="n"/>
+      <c r="D26" s="50" t="n"/>
+      <c r="E26" s="50" t="n"/>
+      <c r="F26" s="51" t="n"/>
+      <c r="G26" s="52" t="n">
+        <v>411.59</v>
+      </c>
+      <c r="H26" s="50" t="n"/>
+      <c r="I26" s="50" t="n"/>
+      <c r="J26" s="50" t="n"/>
+      <c r="K26" s="50" t="n"/>
+      <c r="L26" s="53" t="n"/>
+    </row>
+    <row r="27" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B27" s="32" t="inlineStr">
         <is>
           <t>Gastos Ocasionais</t>
         </is>
       </c>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-      <c r="F25" s="26" t="n"/>
-      <c r="G25" s="35" t="n">
-        <v>359.18</v>
-      </c>
-      <c r="H25" s="6" t="n"/>
-      <c r="I25" s="6" t="n"/>
-      <c r="J25" s="6" t="n"/>
-      <c r="K25" s="6" t="n"/>
-      <c r="L25" s="7" t="n"/>
-    </row>
-    <row r="26" ht="21" customHeight="1" s="12">
-      <c r="B26" s="25" t="inlineStr">
+      <c r="C27" s="50" t="n"/>
+      <c r="D27" s="50" t="n"/>
+      <c r="E27" s="50" t="n"/>
+      <c r="F27" s="51" t="n"/>
+      <c r="G27" s="52" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="H27" s="50" t="n"/>
+      <c r="I27" s="50" t="n"/>
+      <c r="J27" s="50" t="n"/>
+      <c r="K27" s="50" t="n"/>
+      <c r="L27" s="53" t="n"/>
+    </row>
+    <row r="28" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B28" s="32" t="inlineStr">
         <is>
           <t>Investimentos e Aplicações</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n"/>
-      <c r="D26" s="6" t="n"/>
-      <c r="E26" s="6" t="n"/>
-      <c r="F26" s="26" t="n"/>
-      <c r="G26" s="35" t="n">
-        <v>2852.53</v>
-      </c>
-      <c r="H26" s="6" t="n"/>
-      <c r="I26" s="6" t="n"/>
-      <c r="J26" s="6" t="n"/>
-      <c r="K26" s="6" t="n"/>
-      <c r="L26" s="7" t="n"/>
-    </row>
-    <row r="27" ht="21" customHeight="1" s="12">
-      <c r="B27" s="25" t="inlineStr">
+      <c r="C28" s="50" t="n"/>
+      <c r="D28" s="50" t="n"/>
+      <c r="E28" s="50" t="n"/>
+      <c r="F28" s="51" t="n"/>
+      <c r="G28" s="52" t="n">
+        <v>2687.8</v>
+      </c>
+      <c r="H28" s="50" t="n"/>
+      <c r="I28" s="50" t="n"/>
+      <c r="J28" s="50" t="n"/>
+      <c r="K28" s="50" t="n"/>
+      <c r="L28" s="53" t="n"/>
+    </row>
+    <row r="29" ht="21" customHeight="1" s="6" thickBot="1">
+      <c r="B29" s="32" t="inlineStr">
         <is>
           <t>Pagamento Fatura</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="26" t="n"/>
-      <c r="G27" s="35" t="n">
+      <c r="C29" s="50" t="n"/>
+      <c r="D29" s="50" t="n"/>
+      <c r="E29" s="50" t="n"/>
+      <c r="F29" s="51" t="n"/>
+      <c r="G29" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="6" t="n"/>
-      <c r="I27" s="6" t="n"/>
-      <c r="J27" s="6" t="n"/>
-      <c r="K27" s="6" t="n"/>
-      <c r="L27" s="7" t="n"/>
-    </row>
-    <row r="28" ht="21" customHeight="1" s="12" thickBot="1">
-      <c r="B28" s="25" t="inlineStr">
+      <c r="H29" s="50" t="n"/>
+      <c r="I29" s="50" t="n"/>
+      <c r="J29" s="50" t="n"/>
+      <c r="K29" s="50" t="n"/>
+      <c r="L29" s="53" t="n"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" s="6" thickBot="1">
+      <c r="B30" s="32" t="inlineStr">
         <is>
           <t>Educação</t>
         </is>
       </c>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
-      <c r="F28" s="26" t="n"/>
-      <c r="G28" s="35" t="n">
-        <v>515.02</v>
-      </c>
-      <c r="H28" s="6" t="n"/>
-      <c r="I28" s="6" t="n"/>
-      <c r="J28" s="6" t="n"/>
-      <c r="K28" s="6" t="n"/>
-      <c r="L28" s="7" t="n"/>
-    </row>
-    <row r="29" ht="21" customHeight="1" s="12" thickBot="1">
-      <c r="B29" s="28" t="inlineStr">
+      <c r="C30" s="50" t="n"/>
+      <c r="D30" s="50" t="n"/>
+      <c r="E30" s="50" t="n"/>
+      <c r="F30" s="51" t="n"/>
+      <c r="G30" s="52" t="n">
+        <v>732</v>
+      </c>
+      <c r="H30" s="50" t="n"/>
+      <c r="I30" s="50" t="n"/>
+      <c r="J30" s="50" t="n"/>
+      <c r="K30" s="50" t="n"/>
+      <c r="L30" s="53" t="n"/>
+    </row>
+    <row r="31" ht="24" customHeight="1" s="6" thickBot="1">
+      <c r="B31" s="37" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
       </c>
-      <c r="C29" s="29" t="n"/>
-      <c r="D29" s="29" t="n"/>
-      <c r="E29" s="29" t="n"/>
-      <c r="F29" s="36" t="n"/>
-      <c r="G29" s="37" t="n">
-        <v>898.3200000000001</v>
-      </c>
-      <c r="H29" s="18" t="n"/>
-      <c r="I29" s="18" t="n"/>
-      <c r="J29" s="18" t="n"/>
-      <c r="K29" s="18" t="n"/>
-      <c r="L29" s="38" t="n"/>
-    </row>
-    <row r="31">
-      <c r="H31" s="1" t="n"/>
+      <c r="C31" s="54" t="n"/>
+      <c r="D31" s="54" t="n"/>
+      <c r="E31" s="54" t="n"/>
+      <c r="F31" s="55" t="n"/>
+      <c r="G31" s="56" t="n">
+        <v>357.27</v>
+      </c>
+      <c r="H31" s="4" t="n"/>
+      <c r="I31" s="4" t="n"/>
+      <c r="J31" s="4" t="n"/>
+      <c r="K31" s="4" t="n"/>
+      <c r="L31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="H32" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B22:F22"/>
     <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="F8:H10"/>
+    <mergeCell ref="B15:L18"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="J3:L5"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G25:L25"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G12:L12"/>
     <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="J8:L10"/>
+    <mergeCell ref="B20:L20"/>
     <mergeCell ref="G23:L23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B13:L16"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="J3:L5"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B3:D5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F3:H5"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J8:L10"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H10"/>
   </mergeCells>
-  <conditionalFormatting sqref="J8:L10">
-    <cfRule type="cellIs" priority="9" operator="greaterThan" dxfId="0">
-      <formula>0.7</formula>
+  <conditionalFormatting sqref="B3:D5">
+    <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="0">
+      <formula>3750</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="greaterThan" dxfId="2">
-      <formula>0.8</formula>
+    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="2">
+      <formula>3000</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="greaterThan" dxfId="1">
+      <formula>3750</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:H10">
-    <cfRule type="cellIs" priority="6" operator="greaterThan" dxfId="1">
+    <cfRule type="cellIs" priority="5" operator="lessThanOrEqual" dxfId="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="lessThanOrEqual" dxfId="2">
+    <cfRule type="cellIs" priority="6" operator="greaterThan" dxfId="2">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D5">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" dxfId="2">
-      <formula>3750</formula>
+  <conditionalFormatting sqref="J8:L10">
+    <cfRule type="cellIs" priority="8" operator="greaterThan" dxfId="1">
+      <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="1">
-      <formula>3000</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="0">
-      <formula>3750</formula>
+    <cfRule type="cellIs" priority="9" operator="greaterThan" dxfId="0">
+      <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
